--- a/src/test/resources/cases/DSB1/api_test_cases.xlsx
+++ b/src/test/resources/cases/DSB1/api_test_cases.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="70">
   <si>
     <t>TCID</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Save Fields</t>
   </si>
   <si>
-    <t>Dynamic Validation Endpoint</t>
+    <t>Dynamic Validation TCID</t>
   </si>
   <si>
     <t>Dynamic Validation Expected Changes</t>
@@ -109,56 +109,53 @@
     <t>TC002</t>
   </si>
   <si>
-    <t>pacs008 out cny 100</t>
-  </si>
-  <si>
-    <t>[Checkwith]Position</t>
+    <r>
+      <t>activeCount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:+0</t>
+    </r>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>Get Summary data</t>
+  </si>
+  <si>
+    <t>summary</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>Endpoint</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>DEV</t>
+  </si>
+  <si>
+    <t>pacs.008_inbound</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>http://localhost:5000/api/inbound_payment.json</t>
   </si>
   <si>
     <t>pacs.008_outbound</t>
-  </si>
-  <si>
-    <t>common</t>
-  </si>
-  <si>
-    <t>x_pacs.008_out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"amount": ${TC001.$.amount}} </t>
-  </si>
-  <si>
-    <t>tag1</t>
-  </si>
-  <si>
-    <t>$.result.amount=${TC001.$.amount}
-Position.$[3].balance=-100</t>
-  </si>
-  <si>
-    <t>$.result.amount</t>
-  </si>
-  <si>
-    <t>Environment</t>
-  </si>
-  <si>
-    <t>Endpoint</t>
-  </si>
-  <si>
-    <t>Method</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>DEV</t>
-  </si>
-  <si>
-    <t>pacs.008_inbound</t>
-  </si>
-  <si>
-    <t>POST</t>
-  </si>
-  <si>
-    <t>http://localhost:5000/api/inbound_payment.json</t>
   </si>
   <si>
     <t>http://localhost:5000/api/outbound_payment.xml</t>
@@ -263,6 +260,9 @@
     "address": "{{debtor.address}}"
   }
 }</t>
+  </si>
+  <si>
+    <t>x_pacs.008_out</t>
   </si>
   <si>
     <t>xml</t>
@@ -359,12 +359,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -385,7 +385,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -405,14 +421,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -426,22 +457,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -451,6 +466,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -482,9 +504,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -497,46 +533,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10.5"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -566,19 +571,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,151 +673,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -763,17 +768,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -789,6 +803,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -817,11 +840,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -836,167 +865,143 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1409,8 +1414,8 @@
   <sheetPr/>
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.41904761904762" defaultRowHeight="15" outlineLevelRow="2"/>
@@ -1525,50 +1530,46 @@
       <c r="N2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-    </row>
-    <row r="3" ht="47.25" spans="1:16">
+      <c r="O2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" ht="31.5" customHeight="1" spans="1:16">
       <c r="A3" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>30</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>34</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="6"/>
       <c r="J3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="5" t="s">
-        <v>35</v>
+      <c r="K3" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="L3" s="5">
         <v>200</v>
       </c>
-      <c r="M3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>37</v>
-      </c>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
     </row>
@@ -1598,142 +1599,142 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1770,26 +1771,26 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" ht="105" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" ht="60" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1815,35 +1816,35 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" ht="201" customHeight="1" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" ht="201" customHeight="1" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1872,23 +1873,23 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" ht="201" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" ht="201" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/cases/DSB1/api_test_cases.xlsx
+++ b/src/test/resources/cases/DSB1/api_test_cases.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="67">
   <si>
     <t>TCID</t>
   </si>
@@ -61,12 +61,6 @@
   </si>
   <si>
     <t>Save Fields</t>
-  </si>
-  <si>
-    <t>Dynamic Validation TCID</t>
-  </si>
-  <si>
-    <t>Dynamic Validation Expected Changes</t>
   </si>
   <si>
     <t>TC001</t>
@@ -100,26 +94,15 @@
 api test</t>
   </si>
   <si>
-    <t>data[0].id=10</t>
-  </si>
-  <si>
-    <t>data[0].id</t>
+    <t>TC001.data[0].id=10
+TC002.activeCount=+0</t>
+  </si>
+  <si>
+    <t>TC001.data[0].id
+TC001.data[0].amount</t>
   </si>
   <si>
     <t>TC002</t>
-  </si>
-  <si>
-    <r>
-      <t>activeCount</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:+0</t>
-    </r>
   </si>
   <si>
     <t>Summary</t>
@@ -359,12 +342,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -383,6 +366,78 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -391,22 +446,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -415,40 +454,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -471,13 +476,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -486,14 +484,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -511,14 +501,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -533,15 +516,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -559,19 +537,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,13 +609,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,13 +657,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,127 +717,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -768,15 +746,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -792,6 +761,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -803,15 +796,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -840,17 +824,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -870,138 +848,138 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1412,10 +1390,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11:N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.41904761904762" defaultRowHeight="15" outlineLevelRow="2"/>
@@ -1433,13 +1411,11 @@
     <col min="12" max="12" width="10.5809523809524" style="4" customWidth="1"/>
     <col min="13" max="13" width="28" style="4" customWidth="1"/>
     <col min="14" max="14" width="26.8761904761905" style="4" customWidth="1"/>
-    <col min="15" max="15" width="29" style="4" customWidth="1"/>
-    <col min="16" max="16" width="36" style="4" customWidth="1"/>
-    <col min="17" max="1018" width="9.42857142857143" style="4"/>
-    <col min="1019" max="1019" width="9.42857142857143"/>
+    <col min="15" max="1016" width="9.42857142857143" style="4"/>
+    <col min="1017" max="1017" width="9.42857142857143"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="1:16">
+    <row r="1" ht="15.75" customHeight="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1482,96 +1458,82 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+    </row>
+    <row r="2" ht="31.5" customHeight="1" spans="1:14">
+      <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" ht="31.5" customHeight="1" spans="1:16">
-      <c r="A2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="I2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>25</v>
       </c>
       <c r="L2" s="5">
         <v>200</v>
       </c>
       <c r="M2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" ht="31.5" customHeight="1" spans="1:14">
+      <c r="A3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" ht="31.5" customHeight="1" spans="1:16">
-      <c r="A3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="6"/>
       <c r="J3" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L3" s="5">
         <v>200</v>
       </c>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1599,142 +1561,142 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1771,26 +1733,26 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" ht="105" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" ht="60" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1816,35 +1778,35 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" ht="201" customHeight="1" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" ht="201" customHeight="1" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1873,23 +1835,23 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" ht="201" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" ht="201" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/cases/DSB1/api_test_cases.xlsx
+++ b/src/test/resources/cases/DSB1/api_test_cases.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="69">
   <si>
     <t>TCID</t>
   </si>
@@ -78,13 +78,13 @@
     <t>common_headers.ftl</t>
   </si>
   <si>
-    <t>env:test</t>
+    <t>env=test</t>
   </si>
   <si>
     <t>get_data_body.ftl</t>
   </si>
   <si>
-    <t>status:Active</t>
+    <t>status=Active</t>
   </si>
   <si>
     <t>Y</t>
@@ -95,7 +95,8 @@
   </si>
   <si>
     <t>TC001.data[0].id=10
-TC002.activeCount=+0</t>
+TC002.activeCount=+0
+TC002.inactiveCount=+0</t>
   </si>
   <si>
     <t>TC001.data[0].id
@@ -112,6 +113,12 @@
   </si>
   <si>
     <t>summary</t>
+  </si>
+  <si>
+    <t>env:test</t>
+  </si>
+  <si>
+    <t>TC003</t>
   </si>
   <si>
     <t>Environment</t>
@@ -1390,13 +1397,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11:N12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.41904761904762" defaultRowHeight="15" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9.41904761904762" defaultRowHeight="15" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="13.1428571428571" style="4" customWidth="1"/>
     <col min="2" max="2" width="21.2857142857143" style="4" customWidth="1"/>
@@ -1459,7 +1466,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" ht="31.5" customHeight="1" spans="1:14">
+    <row r="2" ht="47.25" spans="1:14">
       <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
@@ -1519,7 +1526,7 @@
         <v>18</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="6"/>
@@ -1534,6 +1541,40 @@
       </c>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
+    </row>
+    <row r="4" ht="31.5" spans="1:14">
+      <c r="A4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="5">
+        <v>200</v>
+      </c>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1561,142 +1602,142 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1733,26 +1774,26 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" ht="105" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" ht="60" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1778,35 +1819,35 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" ht="201" customHeight="1" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" ht="201" customHeight="1" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1835,23 +1876,23 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" ht="201" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" ht="201" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/cases/DSB1/api_test_cases.xlsx
+++ b/src/test/resources/cases/DSB1/api_test_cases.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="70">
   <si>
     <t>TCID</t>
   </si>
@@ -78,13 +78,13 @@
     <t>common_headers.ftl</t>
   </si>
   <si>
-    <t>env=test</t>
+    <t>env=${env}</t>
   </si>
   <si>
     <t>get_data_body.ftl</t>
   </si>
   <si>
-    <t>status=Active</t>
+    <t>status=${status}</t>
   </si>
   <si>
     <t>Y</t>
@@ -116,6 +116,10 @@
   </si>
   <si>
     <t>env:test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC002.data[0].id=10
+</t>
   </si>
   <si>
     <t>TC003</t>
@@ -349,10 +353,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -373,14 +377,22 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -388,6 +400,104 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -408,112 +518,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -523,7 +527,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -544,19 +548,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,19 +656,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,139 +716,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -754,21 +758,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -779,6 +768,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -816,26 +820,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -855,138 +859,138 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1400,7 +1404,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.41904761904762" defaultRowHeight="15" outlineLevelRow="3"/>
@@ -1539,12 +1543,14 @@
       <c r="L3" s="5">
         <v>200</v>
       </c>
-      <c r="M3" s="6"/>
+      <c r="M3" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="N3" s="6"/>
     </row>
     <row r="4" ht="31.5" spans="1:14">
       <c r="A4" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>27</v>
@@ -1602,142 +1608,142 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1774,26 +1780,26 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" ht="105" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" ht="60" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1819,35 +1825,35 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" ht="201" customHeight="1" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" ht="201" customHeight="1" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1876,23 +1882,23 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" ht="201" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" ht="201" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/cases/DSB1/api_test_cases.xlsx
+++ b/src/test/resources/cases/DSB1/api_test_cases.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="73">
   <si>
     <t>TCID</t>
   </si>
@@ -72,13 +72,17 @@
     <t>Filters by default criterias</t>
   </si>
   <si>
+    <t>[TestSetup]TC003
+[TestTeardown]TC003</t>
+  </si>
+  <si>
     <t>get_data</t>
   </si>
   <si>
     <t>common_headers.ftl</t>
   </si>
   <si>
-    <t>env=${env}</t>
+    <t>env=${TC003.totalCount}</t>
   </si>
   <si>
     <t>get_data_body.ftl</t>
@@ -99,8 +103,8 @@
 TC002.inactiveCount=+0</t>
   </si>
   <si>
-    <t>TC001.data[0].id
-TC001.data[0].amount</t>
+    <t xml:space="preserve">TC001.data[0].id
+</t>
   </si>
   <si>
     <t>TC002</t>
@@ -118,11 +122,18 @@
     <t>env:test</t>
   </si>
   <si>
-    <t xml:space="preserve">TC002.data[0].id=10
+    <t xml:space="preserve">TC002.totalCount=18
 </t>
   </si>
   <si>
     <t>TC003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC003.totalCount=18
+</t>
+  </si>
+  <si>
+    <t>TC003.totalCount</t>
   </si>
   <si>
     <t>Environment</t>
@@ -353,9 +364,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -377,6 +388,94 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -385,9 +484,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -398,111 +529,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -512,26 +538,11 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -548,67 +559,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,7 +715,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,97 +733,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -757,32 +768,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -820,11 +812,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -843,154 +865,143 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1404,7 +1415,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="N2" sqref="A2:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.41904761904762" defaultRowHeight="15" outlineLevelRow="3"/>
@@ -1414,7 +1425,8 @@
     <col min="3" max="3" width="25" style="4" customWidth="1"/>
     <col min="4" max="4" width="24.7333333333333" style="4" customWidth="1"/>
     <col min="5" max="5" width="20" style="4" customWidth="1"/>
-    <col min="6" max="7" width="22.4285714285714" style="4" customWidth="1"/>
+    <col min="6" max="6" width="22.4285714285714" style="4" customWidth="1"/>
+    <col min="7" max="7" width="30.2857142857143" style="4" customWidth="1"/>
     <col min="8" max="8" width="19.2857142857143" style="4" customWidth="1"/>
     <col min="9" max="9" width="38.2666666666667" style="4" customWidth="1"/>
     <col min="10" max="10" width="5" style="4" customWidth="1"/>
@@ -1480,107 +1492,113 @@
       <c r="C2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="D2" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="E2" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L2" s="5">
         <v>200</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" ht="31.5" customHeight="1" spans="1:14">
       <c r="A3" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="6"/>
       <c r="J3" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L3" s="5">
         <v>200</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N3" s="6"/>
     </row>
     <row r="4" ht="31.5" spans="1:14">
       <c r="A4" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="6"/>
       <c r="J4" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L4" s="5">
         <v>200</v>
       </c>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
+      <c r="M4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1608,142 +1626,142 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="C7" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1780,26 +1798,26 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" ht="105" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" ht="60" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1825,35 +1843,35 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" ht="201" customHeight="1" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" ht="201" customHeight="1" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1882,23 +1900,23 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" ht="201" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" ht="201" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/cases/DSB1/api_test_cases.xlsx
+++ b/src/test/resources/cases/DSB1/api_test_cases.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="72">
   <si>
     <t>TCID</t>
   </si>
@@ -72,10 +72,6 @@
     <t>Filters by default criterias</t>
   </si>
   <si>
-    <t>[TestSetup]TC003
-[TestTeardown]TC003</t>
-  </si>
-  <si>
     <t>get_data</t>
   </si>
   <si>
@@ -85,7 +81,7 @@
     <t>env=${TC003.totalCount}</t>
   </si>
   <si>
-    <t>get_data_body.ftl</t>
+    <t>get_data_body_json.ftl</t>
   </si>
   <si>
     <t>status=${status}</t>
@@ -364,10 +360,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -388,11 +384,109 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -402,83 +496,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -501,21 +519,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -528,21 +539,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -559,187 +555,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -770,20 +766,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -829,6 +829,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -850,158 +861,143 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1415,7 +1411,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="A2:N2"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.41904761904762" defaultRowHeight="15" outlineLevelRow="3"/>
@@ -1427,7 +1423,7 @@
     <col min="5" max="5" width="20" style="4" customWidth="1"/>
     <col min="6" max="6" width="22.4285714285714" style="4" customWidth="1"/>
     <col min="7" max="7" width="30.2857142857143" style="4" customWidth="1"/>
-    <col min="8" max="8" width="19.2857142857143" style="4" customWidth="1"/>
+    <col min="8" max="8" width="22.4285714285714" style="4" customWidth="1"/>
     <col min="9" max="9" width="38.2666666666667" style="4" customWidth="1"/>
     <col min="10" max="10" width="5" style="4" customWidth="1"/>
     <col min="11" max="11" width="10.2857142857143" style="4" customWidth="1"/>
@@ -1492,112 +1488,110 @@
       <c r="C2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="L2" s="5">
         <v>200</v>
       </c>
       <c r="M2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" ht="31.5" customHeight="1" spans="1:14">
       <c r="A3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="6"/>
       <c r="J3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="L3" s="5">
         <v>200</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N3" s="6"/>
     </row>
     <row r="4" ht="31.5" spans="1:14">
       <c r="A4" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="6"/>
       <c r="J4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="L4" s="5">
         <v>200</v>
       </c>
       <c r="M4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1626,142 +1620,142 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="D10" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1798,26 +1792,26 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" ht="105" spans="1:2">
       <c r="A2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="3" ht="60" spans="1:2">
       <c r="A3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1843,35 +1837,35 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" ht="201" customHeight="1" spans="1:3">
       <c r="A2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="3" ht="201" customHeight="1" spans="1:3">
       <c r="A3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1900,23 +1894,23 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" ht="201" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" ht="201" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/cases/DSB1/api_test_cases.xlsx
+++ b/src/test/resources/cases/DSB1/api_test_cases.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="75">
   <si>
     <t>TCID</t>
   </si>
@@ -92,6 +92,24 @@
 </t>
   </si>
   <si>
+    <t>Filters01</t>
+  </si>
+  <si>
+    <t>Defaul Filters</t>
+  </si>
+  <si>
+    <t>Filters by default criterias</t>
+  </si>
+  <si>
+    <t>get_data</t>
+  </si>
+  <si>
+    <t>get_data_body_json.ftl</t>
+  </si>
+  <si>
+    <t>Filters01.data[0].id</t>
+  </si>
+  <si>
     <t>AddItem01</t>
   </si>
   <si>
@@ -101,13 +119,16 @@
     <t>Add Item for testing</t>
   </si>
   <si>
+    <t>[TestSetup]Filters01</t>
+  </si>
+  <si>
     <t>add_item</t>
   </si>
   <si>
     <t>add_item_body_json.ftl</t>
   </si>
   <si>
-    <t>ref=REF0019
+    <t>ref=${Filters01.data[0].id}
 amount=100</t>
   </si>
   <si>
@@ -118,24 +139,6 @@
   <si>
     <t>AddItem01.item.id
 AddItem01.item.referenceNo</t>
-  </si>
-  <si>
-    <t>Filters01</t>
-  </si>
-  <si>
-    <t>Defaul Filters</t>
-  </si>
-  <si>
-    <t>Filters by default criterias</t>
-  </si>
-  <si>
-    <t>get_data</t>
-  </si>
-  <si>
-    <t>get_data_body_json.ftl</t>
-  </si>
-  <si>
-    <t>status=${status}</t>
   </si>
   <si>
     <t>Environment</t>
@@ -366,10 +369,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -390,22 +393,99 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -417,8 +497,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -432,64 +534,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -500,51 +548,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -561,19 +564,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,7 +648,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,151 +684,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -773,6 +776,69 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -794,45 +860,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -843,167 +870,143 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1417,7 +1420,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.41904761904762" defaultRowHeight="15" outlineLevelRow="3"/>
@@ -1520,7 +1523,7 @@
       </c>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" ht="47.25" spans="1:14">
+    <row r="3" ht="31.5" spans="1:14">
       <c r="A3" s="5" t="s">
         <v>23</v>
       </c>
@@ -1530,7 +1533,7 @@
       <c r="C3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="5"/>
+      <c r="D3" s="6"/>
       <c r="E3" s="5" t="s">
         <v>26</v>
       </c>
@@ -1543,9 +1546,7 @@
       <c r="H3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>28</v>
-      </c>
+      <c r="I3" s="6"/>
       <c r="J3" s="5" t="s">
         <v>20</v>
       </c>
@@ -1555,26 +1556,26 @@
       <c r="L3" s="5">
         <v>200</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="6"/>
+      <c r="N3" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" ht="47.25" spans="1:14">
+      <c r="A4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" ht="31.5" spans="1:14">
-      <c r="A4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>18</v>
@@ -1583,10 +1584,10 @@
         <v>19</v>
       </c>
       <c r="H4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>20</v>
@@ -1597,8 +1598,12 @@
       <c r="L4" s="5">
         <v>200</v>
       </c>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
+      <c r="M4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1626,142 +1631,142 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1798,26 +1803,26 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" ht="105" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" ht="60" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1843,35 +1848,35 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" ht="201" customHeight="1" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" ht="201" customHeight="1" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1900,23 +1905,23 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" ht="201" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" ht="201" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/cases/DSB1/api_test_cases.xlsx
+++ b/src/test/resources/cases/DSB1/api_test_cases.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="74">
   <si>
     <t>TCID</t>
   </si>
@@ -63,28 +63,22 @@
     <t>Save Fields</t>
   </si>
   <si>
-    <t>TC001</t>
-  </si>
-  <si>
-    <t>Defaul Filters</t>
-  </si>
-  <si>
-    <t>Filters by default criterias</t>
-  </si>
-  <si>
-    <t>get_data</t>
+    <t>Summary01</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>Get Summary data</t>
+  </si>
+  <si>
+    <t>summary</t>
   </si>
   <si>
     <t>common_headers.ftl</t>
   </si>
   <si>
-    <t>env=${TC003.totalCount}</t>
-  </si>
-  <si>
-    <t>get_data_body_json.ftl</t>
-  </si>
-  <si>
-    <t>status=${status}</t>
+    <t>env:test</t>
   </si>
   <si>
     <t>Y</t>
@@ -94,42 +88,54 @@
 api test</t>
   </si>
   <si>
-    <t>TC001.data[0].id=10
-TC002.activeCount=+0
-TC002.inactiveCount=+0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC001.data[0].id
+    <t xml:space="preserve">Summary01.inactiveCount=10
 </t>
   </si>
   <si>
-    <t>TC002</t>
-  </si>
-  <si>
-    <t>Summary</t>
-  </si>
-  <si>
-    <t>Get Summary data</t>
-  </si>
-  <si>
-    <t>summary</t>
-  </si>
-  <si>
-    <t>env:test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC002.totalCount=18
-</t>
-  </si>
-  <si>
-    <t>TC003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC003.totalCount=18
-</t>
-  </si>
-  <si>
-    <t>TC003.totalCount</t>
+    <t>AddItem01</t>
+  </si>
+  <si>
+    <t>Add Item</t>
+  </si>
+  <si>
+    <t>Add Item for testing</t>
+  </si>
+  <si>
+    <t>add_item</t>
+  </si>
+  <si>
+    <t>add_item_body_json.ftl</t>
+  </si>
+  <si>
+    <t>ref=REF0019
+amount=100</t>
+  </si>
+  <si>
+    <t>AddItem01.item.amount=100
+Summary01.totalAmount=+100
+Summary01.activeAmount=+100</t>
+  </si>
+  <si>
+    <t>AddItem01.item.id
+AddItem01.item.referenceNo</t>
+  </si>
+  <si>
+    <t>Filters01</t>
+  </si>
+  <si>
+    <t>Defaul Filters</t>
+  </si>
+  <si>
+    <t>Filters by default criterias</t>
+  </si>
+  <si>
+    <t>get_data</t>
+  </si>
+  <si>
+    <t>get_data_body_json.ftl</t>
+  </si>
+  <si>
+    <t>status=${status}</t>
   </si>
   <si>
     <t>Environment</t>
@@ -1410,8 +1416,8 @@
   <sheetPr/>
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.41904761904762" defaultRowHeight="15" outlineLevelRow="3"/>
@@ -1428,7 +1434,7 @@
     <col min="10" max="10" width="5" style="4" customWidth="1"/>
     <col min="11" max="11" width="10.2857142857143" style="4" customWidth="1"/>
     <col min="12" max="12" width="10.5809523809524" style="4" customWidth="1"/>
-    <col min="13" max="13" width="28" style="4" customWidth="1"/>
+    <col min="13" max="13" width="31.2857142857143" style="4" customWidth="1"/>
     <col min="14" max="14" width="26.8761904761905" style="4" customWidth="1"/>
     <col min="15" max="1016" width="9.42857142857143" style="4"/>
     <col min="1017" max="1017" width="9.42857142857143"/>
@@ -1478,7 +1484,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" ht="47.25" spans="1:14">
+    <row r="2" ht="31.5" customHeight="1" spans="1:14">
       <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
@@ -1488,7 +1494,7 @@
       <c r="C2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
         <v>17</v>
       </c>
@@ -1498,101 +1504,101 @@
       <c r="G2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="5"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="L2" s="5">
         <v>200</v>
       </c>
       <c r="M2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="6"/>
+    </row>
+    <row r="3" ht="47.25" spans="1:14">
+      <c r="A3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="3" ht="31.5" customHeight="1" spans="1:14">
-      <c r="A3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="6"/>
+        <v>19</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="J3" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L3" s="5">
         <v>200</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" ht="31.5" spans="1:14">
       <c r="A4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="C4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="D4" s="6"/>
       <c r="E4" s="5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="6"/>
+        <v>19</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="J4" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L4" s="5">
         <v>200</v>
       </c>
-      <c r="M4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>34</v>
-      </c>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1620,142 +1626,142 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1792,26 +1798,26 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" ht="105" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" ht="60" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1837,35 +1843,35 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" ht="201" customHeight="1" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" ht="201" customHeight="1" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1894,23 +1900,23 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" ht="201" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" ht="201" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/cases/DSB1/api_test_cases.xlsx
+++ b/src/test/resources/cases/DSB1/api_test_cases.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="83">
   <si>
     <t>TCID</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>Body Override</t>
+  </si>
+  <si>
+    <t>Query Params</t>
+  </si>
+  <si>
+    <t>Path Params</t>
   </si>
   <si>
     <t>Run</t>
@@ -119,7 +125,8 @@
     <t>Add Item for testing</t>
   </si>
   <si>
-    <t>[TestSetup]Filters01</t>
+    <t>[TestSetup]Filters01
+[TestTearDown]DeleteItem01</t>
   </si>
   <si>
     <t>add_item</t>
@@ -139,6 +146,25 @@
   <si>
     <t>AddItem01.item.id
 AddItem01.item.referenceNo</t>
+  </si>
+  <si>
+    <t>DeleteItem01</t>
+  </si>
+  <si>
+    <t>Delete Item</t>
+  </si>
+  <si>
+    <t>Delete Item for testing</t>
+  </si>
+  <si>
+    <t>delete_item</t>
+  </si>
+  <si>
+    <t>id=${AddItem01.item.id}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DeleteItem01.message=Item deleted successfully
+</t>
   </si>
   <si>
     <t>Environment</t>
@@ -369,10 +395,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -393,9 +419,100 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -406,38 +523,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -451,91 +546,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -548,6 +560,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -564,6 +590,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -576,175 +752,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -773,15 +799,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -797,17 +814,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -823,24 +834,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -862,6 +855,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -875,48 +901,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -925,88 +951,88 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1417,13 +1443,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.41904761904762" defaultRowHeight="15" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9.41904761904762" defaultRowHeight="15" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="13.1428571428571" style="4" customWidth="1"/>
     <col min="2" max="2" width="21.2857142857143" style="4" customWidth="1"/>
@@ -1434,16 +1460,18 @@
     <col min="7" max="7" width="30.2857142857143" style="4" customWidth="1"/>
     <col min="8" max="8" width="22.4285714285714" style="4" customWidth="1"/>
     <col min="9" max="9" width="38.2666666666667" style="4" customWidth="1"/>
-    <col min="10" max="10" width="5" style="4" customWidth="1"/>
-    <col min="11" max="11" width="10.2857142857143" style="4" customWidth="1"/>
-    <col min="12" max="12" width="10.5809523809524" style="4" customWidth="1"/>
-    <col min="13" max="13" width="31.2857142857143" style="4" customWidth="1"/>
-    <col min="14" max="14" width="26.8761904761905" style="4" customWidth="1"/>
-    <col min="15" max="1016" width="9.42857142857143" style="4"/>
-    <col min="1017" max="1017" width="9.42857142857143"/>
+    <col min="10" max="10" width="14.4285714285714" style="4" customWidth="1"/>
+    <col min="11" max="11" width="12.8571428571429" style="4" customWidth="1"/>
+    <col min="12" max="12" width="5" style="4" customWidth="1"/>
+    <col min="13" max="13" width="10.2857142857143" style="4" customWidth="1"/>
+    <col min="14" max="14" width="10.5809523809524" style="4" customWidth="1"/>
+    <col min="15" max="15" width="31.2857142857143" style="4" customWidth="1"/>
+    <col min="16" max="16" width="26.8761904761905" style="4" customWidth="1"/>
+    <col min="17" max="1018" width="9.42857142857143" style="4"/>
+    <col min="1019" max="1019" width="9.42857142857143"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="1:14">
+    <row r="1" ht="15.75" customHeight="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1486,124 +1514,176 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" ht="31.5" customHeight="1" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" ht="31.5" customHeight="1" spans="1:16">
       <c r="A2" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="5">
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="5">
         <v>200</v>
       </c>
-      <c r="M2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" s="6"/>
-    </row>
-    <row r="3" ht="31.5" spans="1:14">
+      <c r="O2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="6"/>
+    </row>
+    <row r="3" ht="31.5" spans="1:16">
       <c r="A3" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I3" s="6"/>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="5">
+        <v>200</v>
+      </c>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" ht="47.25" spans="1:16">
+      <c r="A4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="5">
+      <c r="H4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="5">
         <v>200</v>
       </c>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" ht="47.25" spans="1:14">
-      <c r="A4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" s="5" t="s">
+      <c r="O4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" ht="47.25" spans="1:16">
+      <c r="A5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="5">
+      <c r="H5" s="5"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="5">
         <v>200</v>
       </c>
-      <c r="M4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>37</v>
-      </c>
+      <c r="O5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="P5" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1631,142 +1711,142 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1803,26 +1883,26 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" ht="105" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" ht="60" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1848,35 +1928,35 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" ht="201" customHeight="1" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" ht="201" customHeight="1" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1905,23 +1985,23 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" ht="201" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" ht="201" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/cases/DSB1/api_test_cases.xlsx
+++ b/src/test/resources/cases/DSB1/api_test_cases.xlsx
@@ -1445,8 +1445,8 @@
   <sheetPr/>
   <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.41904761904762" defaultRowHeight="15" outlineLevelRow="4"/>
